--- a/penyata-akhir-2024/form4/4NEKAD-2024.xlsx
+++ b/penyata-akhir-2024/form4/4NEKAD-2024.xlsx
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="24">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="6"/>
